--- a/01_analyses_states/Madhya Pradesh/results/SoIB_summaries.xlsx
+++ b/01_analyses_states/Madhya Pradesh/results/SoIB_summaries.xlsx
@@ -546,10 +546,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -561,9 +558,6 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -572,10 +566,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -585,10 +576,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>80</v>
-      </c>
-      <c r="C5">
-        <v>20.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,10 +586,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>163</v>
-      </c>
-      <c r="C6">
-        <v>41.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -611,10 +596,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>131</v>
-      </c>
-      <c r="C7">
-        <v>33.4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -745,7 +727,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>392</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -804,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -817,6 +799,12 @@
         <v>11</v>
       </c>
       <c r="C3">
+        <v>91.7</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
         <v>91.7</v>
       </c>
     </row>

--- a/01_analyses_states/Madhya Pradesh/results/SoIB_summaries.xlsx
+++ b/01_analyses_states/Madhya Pradesh/results/SoIB_summaries.xlsx
@@ -11,7 +11,8 @@
     <sheet name="Range Status" sheetId="2" r:id="rId2"/>
     <sheet name="Priority Status" sheetId="3" r:id="rId3"/>
     <sheet name="Species qualification" sheetId="4" r:id="rId4"/>
-    <sheet name="High Priority break-up" sheetId="5" r:id="rId5"/>
+    <sheet name="Interannual update - High Pri" sheetId="5" r:id="rId5"/>
+    <sheet name="Major update - High Priority " sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -395,16 +396,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>33.3</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>36.9</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -417,13 +418,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>36.9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -433,16 +434,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>66.7</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>24.6</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="5">
@@ -455,13 +456,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="6">
@@ -474,13 +475,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -490,10 +491,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -503,10 +504,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C8">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -631,7 +632,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +642,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>127</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4">
@@ -651,7 +652,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>253</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -687,11 +688,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SoIB 2023 Assessment</t>
+          <t>SoIB Assessment</t>
         </is>
       </c>
       <c r="B2">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3">
@@ -701,10 +702,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -714,10 +715,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C4">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -777,6 +778,84 @@
         </is>
       </c>
       <c r="B2">
+        <v>72</v>
+      </c>
+      <c r="C2">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="D2">
+        <v>72</v>
+      </c>
+      <c r="E2">
+        <v>77.40000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>IUCN</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>30.1</v>
+      </c>
+      <c r="D3">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>22.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Break-up</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>High Species (no.)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>High Species (perc.)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>New High Species (no.)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>New High Species (perc.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Trend New</t>
+        </is>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">

--- a/01_analyses_states/Madhya Pradesh/results/SoIB_summaries.xlsx
+++ b/01_analyses_states/Madhya Pradesh/results/SoIB_summaries.xlsx
@@ -399,13 +399,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.300000000000001</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="3">
@@ -418,13 +418,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="4">
@@ -437,13 +437,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>100</v>
       </c>
       <c r="E4">
-        <v>54.2</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="6">
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.300000000000001</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -718,7 +718,7 @@
         <v>104</v>
       </c>
       <c r="C4">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -778,16 +778,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2">
-        <v>69.90000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="D2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2">
-        <v>77.40000000000001</v>
+        <v>79.59999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -797,16 +797,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3">
-        <v>30.1</v>
+        <v>28.2</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>22.6</v>
+        <v>20.4</v>
       </c>
     </row>
   </sheetData>
